--- a/experiment/excel/chatgpt_data4.xlsx
+++ b/experiment/excel/chatgpt_data4.xlsx
@@ -479,14 +479,14 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>价格类型</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>价格</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>价格类型</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
         <is>
           <t>申报价格</t>
@@ -494,67 +494,67 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>信息公布方式</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>证券营业部识别码</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>交易单元代码</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>公布内容</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>证券代码</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>信息公布类型</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>证券账户号码</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>买卖方向</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>申报类型</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
           <t>交易金额</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>公布内容</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>信息公布方式</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>交易单元代码</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>证券营业部识别码</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>证券代码</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>对手方交易单元代码</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>申报类型</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>买卖方向</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>信息公布类型</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>约定号</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>交易日</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>证券账户号码</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
@@ -894,11 +894,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>50万元</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -907,7 +903,11 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>50万元</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -968,11 +968,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>40万元</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -981,7 +977,11 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>40万元</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1042,11 +1042,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>60万元</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1055,7 +1051,11 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>60万元</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1116,11 +1116,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>45万元</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1129,7 +1125,11 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>45万元</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1172,37 +1172,37 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>意向申报</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>买入</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>有效</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1242,37 +1242,37 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>意向申报</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>卖出</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>缺失</t>
-        </is>
-      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
           <t>失败</t>
@@ -1311,27 +1311,27 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>指定</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
           <t>有效</t>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
           <t>成交申报</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>买入</t>
         </is>
       </c>
       <c r="X12" t="inlineStr"/>
@@ -1353,12 +1353,12 @@
           <t>有效</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1397,27 +1397,27 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>未指定</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
           <t>有效</t>
@@ -1425,12 +1425,12 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
           <t>成交申报</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>卖出</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1439,12 +1439,12 @@
           <t>有效</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
           <t>失败</t>
@@ -1483,46 +1483,46 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>指定</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
           <t>定价申报</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>买入</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>有效</t>
-        </is>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1561,46 +1561,46 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>指定</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
           <t>定价申报</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>卖出</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>有效</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
           <t>失败</t>
@@ -1647,46 +1647,46 @@
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>当日收盘价</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>有效</t>
-        </is>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1733,46 +1733,46 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>非法价格类型</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
         <is>
           <t>有效</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>有效</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
           <t>失败</t>
@@ -1837,12 +1837,12 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
         <is>
           <t>上市首日</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1907,12 +1907,12 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr">
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>上市首日</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
           <t>失败</t>
@@ -1977,12 +1977,12 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr">
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>非上市首日</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
           <t>成功</t>
@@ -2047,12 +2047,12 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
         <is>
           <t>非上市首日</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
           <t>失败</t>
@@ -2094,18 +2094,18 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>交易系统或本所网站</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>证券代码、证券简称、申报类型、买卖方向、数量、价格</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>交易系统或本所网站</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -2156,18 +2156,18 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>交易系统或本所网站</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>缺失必要信息（如证券代码或价格）</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>交易系统或本所网站</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -2218,18 +2218,18 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>交易系统或本所网站</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>证券代码、证券简称、价格、当日累计成交数量、当日累计成交金额、实时买卖申报数量</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>交易系统或本所网站</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -2280,18 +2280,18 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>交易系统或本所网站</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>缺失必要信息（如当日累计成交金额或实时买卖申报数量）</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>交易系统或本所网站</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -2343,23 +2343,23 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>证券代码、证券简称、成交量、成交价格、买卖双方会员证券营业部或交易单元名称</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>协商成交每笔成交信息</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>协商成交每笔成交信息</t>
-        </is>
-      </c>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -2405,23 +2405,23 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>缺失必要信息（如成交量或成交价格）</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>协商成交每笔成交信息</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>协商成交每笔成交信息</t>
-        </is>
-      </c>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
@@ -2467,23 +2467,23 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>累计成交量、累计成交金额、买卖金额最大五家会员证券营业部或交易单元名称及各自买卖金额</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>单只可转债盘后定价成交累计信息</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>单只可转债盘后定价成交累计信息</t>
-        </is>
-      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
@@ -2529,23 +2529,23 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>缺失必要信息（如累计成交量或买卖金额最大五家会员信息）</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>单只可转债盘后定价成交累计信息</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>单只可转债盘后定价成交累计信息</t>
-        </is>
-      </c>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -2591,23 +2591,23 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>累计成交量、累计成交金额、买卖金额最大五家会员证券营业部或交易单元名称及各自买卖金额</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>协商及盘后定价成交合计信息</t>
+        </is>
+      </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>协商及盘后定价成交合计信息</t>
-        </is>
-      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -2653,23 +2653,23 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>缺失必要信息（如累计成交金额或买卖金额最大五家会员信息）</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>协商及盘后定价成交合计信息</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>协商及盘后定价成交合计信息</t>
-        </is>
-      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
